--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MAINE_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MAINE_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C6">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C14">
@@ -625,7 +625,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C18">
@@ -682,7 +682,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C22">
@@ -858,7 +858,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C34">
@@ -964,7 +964,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C41">
@@ -990,7 +990,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C43">
@@ -1037,76 +1037,6 @@
       </c>
       <c r="D46">
         <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MAINE_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MAINE_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -724,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -755,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -786,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -817,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -830,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -843,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -856,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -869,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -900,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -931,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -962,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -975,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -988,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Paso Del Macho</t>
@@ -1001,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -1014,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
